--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-708175.1275761964</v>
+        <v>-682490.2876452721</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17449938.18306644</v>
+        <v>16765245.16155731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484448</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9536655.109817505</v>
+        <v>9578673.664816696</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +662,16 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>105.0973720319683</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>268.9486504810243</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>93.6579295354897</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>71.01620293381245</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -865,7 +865,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -877,13 +877,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.26353076837829</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>153.0645953381182</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>152.355512532834</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>13.5144690908967</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>422.1126624218246</v>
       </c>
       <c r="D8" t="n">
-        <v>416.2535709561617</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>134.0221111781897</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>102.9379128513687</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>259.7714207702671</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>172.7542276863268</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>172.6623007436913</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864829</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1771,16 +1771,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>7.264602967362567</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>54.49360828358933</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>31.24391673888164</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2011,13 +2011,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>35.34780583513525</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2242,22 +2242,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170493</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>54.18430635300778</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>47.61404849749822</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225815</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925399</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>129.7139627068451</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934472</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
@@ -3670,13 +3670,13 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277822</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
         <v>71.53763939432403</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3913,10 +3913,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934458</v>
+        <v>4.967932742934495</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4150,10 +4150,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432412</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934458</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>626.6133988393536</v>
+        <v>977.375991290638</v>
       </c>
       <c r="C2" t="n">
-        <v>592.511330063181</v>
+        <v>943.2739225144654</v>
       </c>
       <c r="D2" t="n">
-        <v>163.9296558004494</v>
+        <v>507.3641376889099</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>477.6297968876091</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.8027713372209</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048482</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048482</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048482</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>607.5718832905909</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1256.08301530159</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1904.59414731259</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2451.092933271184</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024241</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2536.595124208078</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2316.527897081116</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>2057.305594398134</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>1694.68864433196</v>
       </c>
       <c r="W2" t="n">
-        <v>1072.260748364489</v>
+        <v>1423.023340815774</v>
       </c>
       <c r="X2" t="n">
-        <v>653.1182849437999</v>
+        <v>1003.880877395084</v>
       </c>
       <c r="Y2" t="n">
-        <v>648.8725652838574</v>
+        <v>999.6351577351418</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1463.178981536725</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>1356.722520373367</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1261.63223151992</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>1167.511816846874</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>1084.127978463036</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>998.7428887292197</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>957.0072365454321</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>983.0709097058897</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1307.629234672102</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1956.140366683102</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1962.335281297826</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1962.335281297826</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1962.335281297826</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1962.335281297826</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1962.335281297826</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2503.074219929901</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024241</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2556.791560472624</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2426.612916803226</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2250.276369803194</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>2051.158851865193</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1865.836097598387</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1710.968661837267</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1584.482882616488</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>672.6790347687931</v>
+        <v>788.878053735645</v>
       </c>
       <c r="C4" t="n">
-        <v>500.1173232520181</v>
+        <v>616.31634221887</v>
       </c>
       <c r="D4" t="n">
-        <v>334.2393304535408</v>
+        <v>616.31634221887</v>
       </c>
       <c r="E4" t="n">
-        <v>262.5057921365585</v>
+        <v>446.5583384696073</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>446.5583384696073</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>280.967063495435</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>141.0648891858095</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048482</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>138.9846251251747</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>413.7430796963102</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>831.9529614642713</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1291.436828645185</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1733.695631802829</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2153.36488102861</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.871774998952</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024241</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2598.829176729613</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2439.587808027609</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>2193.708361606064</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.45316161735</v>
+        <v>1915.27536085917</v>
       </c>
       <c r="V4" t="n">
-        <v>864.4976534877803</v>
+        <v>1628.3198527296</v>
       </c>
       <c r="W4" t="n">
-        <v>864.4976534877803</v>
+        <v>1356.293448315892</v>
       </c>
       <c r="X4" t="n">
-        <v>864.4976534877803</v>
+        <v>1110.901693649304</v>
       </c>
       <c r="Y4" t="n">
-        <v>864.4976534877803</v>
+        <v>883.4820229634124</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1640.390771432659</v>
+        <v>1111.798517333797</v>
       </c>
       <c r="C5" t="n">
-        <v>1211.809097169927</v>
+        <v>673.6560445172204</v>
       </c>
       <c r="D5" t="n">
-        <v>1179.939716384776</v>
+        <v>237.7462596916649</v>
       </c>
       <c r="E5" t="n">
-        <v>751.3580421220443</v>
+        <v>208.0119188903641</v>
       </c>
       <c r="F5" t="n">
-        <v>323.4906125312521</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2365.526674939741</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1946.384211519051</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1538.098087818705</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1146.964903885608</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1146.964903885608</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.8381257054811</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1242.430001543761</v>
+        <v>1777.329602475393</v>
       </c>
       <c r="C8" t="n">
-        <v>1208.327932767588</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>787.8697802866168</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>758.1354394853161</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>734.3084139349279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>332.9105825581918</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>43.78042800140806</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36363862854807</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>478.618326081466</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1015.243354109748</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1015.243354109748</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1015.243354109748</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1015.243354109748</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1094.931875370839</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1631.556903399121</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.181931427403</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.181931427403</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.181931427403</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1948.114704300442</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1688.892401617459</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1688.892401617459</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>1688.077351068896</v>
+        <v>1818.936547960124</v>
       </c>
       <c r="X8" t="n">
-        <v>1268.934887648207</v>
+        <v>1803.834488579839</v>
       </c>
       <c r="Y8" t="n">
-        <v>1264.689167988265</v>
+        <v>1799.588768919897</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549.5353836198409</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>443.0789224564832</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>347.9886336030364</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>253.8682189299901</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>170.4843805461517</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>85.0992908123356</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36363862854807</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>69.42731178900567</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>393.985636755218</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>930.6106647835003</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1052.805593984735</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1052.805593984735</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1052.805593984735</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1052.805593984735</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.805593984735</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1589.430622013017</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1706.603400107357</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1643.14796255574</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1512.969318886342</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1336.63277188631</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1137.515253948309</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>952.1924996815033</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>797.3250639203833</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>670.839284699604</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>452.8347776612032</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>452.8347776612032</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>452.8347776612032</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>348.8570879123459</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>348.8570879123459</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>183.2658129381736</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36363862854807</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36363862854807</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36363862854807</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>81.05323612476172</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>499.2631178927228</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>958.7469850736359</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1401.00578823128</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1820.675037457062</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2168.181931427403</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2168.181931427403</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2168.181931427403</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2008.9405627254</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1763.061116303855</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.62811555696</v>
+        <v>2210.968635687902</v>
       </c>
       <c r="V10" t="n">
-        <v>1197.672607427391</v>
+        <v>1924.013127558332</v>
       </c>
       <c r="W10" t="n">
-        <v>925.6462030136825</v>
+        <v>1651.986723144624</v>
       </c>
       <c r="X10" t="n">
-        <v>680.2544483470949</v>
+        <v>1406.594968478036</v>
       </c>
       <c r="Y10" t="n">
-        <v>452.8347776612032</v>
+        <v>1179.175297792145</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1667.912143454991</v>
+        <v>1670.317940672644</v>
       </c>
       <c r="C11" t="n">
-        <v>1229.769670638414</v>
+        <v>1232.175467856067</v>
       </c>
       <c r="D11" t="n">
-        <v>793.8598858128586</v>
+        <v>796.2656830305116</v>
       </c>
       <c r="E11" t="n">
-        <v>360.0851409711537</v>
+        <v>362.4909381888068</v>
       </c>
       <c r="F11" t="n">
-        <v>360.0851409711537</v>
+        <v>362.4909381888068</v>
       </c>
       <c r="G11" t="n">
-        <v>360.0851409711537</v>
+        <v>362.4909381888068</v>
       </c>
       <c r="H11" t="n">
-        <v>70.95498641437003</v>
+        <v>73.36078363202301</v>
       </c>
       <c r="I11" t="n">
-        <v>70.53819704151003</v>
+        <v>72.94399425916302</v>
       </c>
       <c r="J11" t="n">
-        <v>505.7928844944279</v>
+        <v>72.94399425916302</v>
       </c>
       <c r="K11" t="n">
-        <v>505.7928844944279</v>
+        <v>907.294286217341</v>
       </c>
       <c r="L11" t="n">
-        <v>505.7928844944279</v>
+        <v>1369.709123209018</v>
       </c>
       <c r="M11" t="n">
-        <v>1378.703072883114</v>
+        <v>1369.709123209018</v>
       </c>
       <c r="N11" t="n">
-        <v>1378.703072883114</v>
+        <v>1369.709123209018</v>
       </c>
       <c r="O11" t="n">
-        <v>1982.947126530454</v>
+        <v>2272.39105216616</v>
       </c>
       <c r="P11" t="n">
-        <v>2811.25700136385</v>
+        <v>3100.700926999556</v>
       </c>
       <c r="Q11" t="n">
-        <v>3357.755787322445</v>
+        <v>3647.199712958151</v>
       </c>
       <c r="R11" t="n">
-        <v>3526.909852075501</v>
+        <v>3647.199712958151</v>
       </c>
       <c r="S11" t="n">
-        <v>3443.257978259338</v>
+        <v>3563.547839141988</v>
       </c>
       <c r="T11" t="n">
-        <v>3443.257978259338</v>
+        <v>3343.480612015027</v>
       </c>
       <c r="U11" t="n">
-        <v>3184.035675576356</v>
+        <v>3084.258309332044</v>
       </c>
       <c r="V11" t="n">
-        <v>3184.035675576356</v>
+        <v>3084.258309332044</v>
       </c>
       <c r="W11" t="n">
-        <v>2921.640301060934</v>
+        <v>2679.402854743077</v>
       </c>
       <c r="X11" t="n">
-        <v>2502.497837640245</v>
+        <v>2504.903634857898</v>
       </c>
       <c r="Y11" t="n">
-        <v>2094.211713939898</v>
+        <v>2096.617511157552</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.7099420328028</v>
+        <v>579.1157392504558</v>
       </c>
       <c r="C12" t="n">
-        <v>470.2534808694451</v>
+        <v>472.6592780870981</v>
       </c>
       <c r="D12" t="n">
-        <v>375.1631920159984</v>
+        <v>377.5689892336513</v>
       </c>
       <c r="E12" t="n">
-        <v>281.0427773429521</v>
+        <v>283.448574560605</v>
       </c>
       <c r="F12" t="n">
-        <v>197.6589389591137</v>
+        <v>200.0647361767666</v>
       </c>
       <c r="G12" t="n">
-        <v>112.2738492252976</v>
+        <v>114.6796464429505</v>
       </c>
       <c r="H12" t="n">
-        <v>70.53819704151003</v>
+        <v>72.94399425916302</v>
       </c>
       <c r="I12" t="n">
-        <v>96.60187020196763</v>
+        <v>99.00766741962062</v>
       </c>
       <c r="J12" t="n">
-        <v>421.1601951681799</v>
+        <v>423.5659923858329</v>
       </c>
       <c r="K12" t="n">
-        <v>1075.866241793904</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="L12" t="n">
-        <v>1075.866241793904</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.866241793904</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.866241793904</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="O12" t="n">
-        <v>1075.866241793904</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="P12" t="n">
-        <v>1075.866241793904</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.605180425979</v>
+        <v>1619.010977643632</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.777958520319</v>
+        <v>1736.183755737972</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.322520968702</v>
+        <v>1672.728318186355</v>
       </c>
       <c r="T12" t="n">
-        <v>1540.143877299304</v>
+        <v>1542.549674516957</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.807330299272</v>
+        <v>1366.213127516925</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.689812361271</v>
+        <v>1167.095609578924</v>
       </c>
       <c r="W12" t="n">
-        <v>979.3670580944652</v>
+        <v>981.7728553121183</v>
       </c>
       <c r="X12" t="n">
-        <v>824.4996223333452</v>
+        <v>826.9054195509982</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.013843112566</v>
+        <v>700.419640330219</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1149.596357653392</v>
+        <v>923.4400313360942</v>
       </c>
       <c r="C13" t="n">
-        <v>977.0346461366164</v>
+        <v>750.8783198193191</v>
       </c>
       <c r="D13" t="n">
-        <v>811.1566533381391</v>
+        <v>585.000327020842</v>
       </c>
       <c r="E13" t="n">
-        <v>641.3986495888763</v>
+        <v>415.2423232715792</v>
       </c>
       <c r="F13" t="n">
-        <v>464.6915955506325</v>
+        <v>238.5352692333354</v>
       </c>
       <c r="G13" t="n">
-        <v>299.1003205764602</v>
+        <v>72.94399425916302</v>
       </c>
       <c r="H13" t="n">
-        <v>159.1981462668347</v>
+        <v>72.94399425916302</v>
       </c>
       <c r="I13" t="n">
-        <v>70.53819704151003</v>
+        <v>72.94399425916302</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1178822061999</v>
+        <v>159.5236794238529</v>
       </c>
       <c r="K13" t="n">
-        <v>431.8763367773355</v>
+        <v>434.2821339949884</v>
       </c>
       <c r="L13" t="n">
-        <v>850.0862185452966</v>
+        <v>852.4920157629494</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.57008572621</v>
+        <v>1311.975882943862</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.828888883854</v>
+        <v>1754.234686101507</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.498138109635</v>
+        <v>2173.903935327288</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.005032079977</v>
+        <v>2521.41082929763</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.19780694431</v>
+        <v>2689.603604161963</v>
       </c>
       <c r="R13" t="n">
-        <v>2665.779985649682</v>
+        <v>2689.603604161963</v>
       </c>
       <c r="S13" t="n">
-        <v>2506.538616947678</v>
+        <v>2671.364435119278</v>
       </c>
       <c r="T13" t="n">
-        <v>2260.659170526133</v>
+        <v>2425.484988697734</v>
       </c>
       <c r="U13" t="n">
-        <v>2086.252806138566</v>
+        <v>2147.051987950839</v>
       </c>
       <c r="V13" t="n">
-        <v>2086.252806138566</v>
+        <v>1860.096479821269</v>
       </c>
       <c r="W13" t="n">
-        <v>1814.226401724858</v>
+        <v>1588.070075407561</v>
       </c>
       <c r="X13" t="n">
-        <v>1568.834647058271</v>
+        <v>1342.678320740973</v>
       </c>
       <c r="Y13" t="n">
-        <v>1341.414976372379</v>
+        <v>1115.258650055081</v>
       </c>
     </row>
     <row r="14">
@@ -5276,46 +5276,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423627</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
@@ -5352,13 +5352,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L15" t="n">
         <v>1107.588885023173</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937638</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C16" t="n">
-        <v>617.7751448769887</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D16" t="n">
-        <v>451.8971520785115</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176948</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878939</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798643</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.155475112751</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="17">
@@ -5522,7 +5522,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5552,13 +5552,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5589,13 +5589,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L18" t="n">
         <v>1107.588885023173</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883919</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716165</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731392</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238765</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>303.5569696238765</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>137.9656946497041</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5756,46 +5756,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5890,19 +5890,19 @@
         <v>639.1929661716169</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731397</v>
+        <v>639.1929661716169</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238769</v>
+        <v>639.1929661716169</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856331</v>
+        <v>462.4859121333732</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>296.8946371592008</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>156.9924628495754</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5914,10 +5914,10 @@
         <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745665</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N22" t="n">
         <v>1783.551532113124</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,19 +5996,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>970.996046390395</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736199</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751427</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>632.5563420751427</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>455.8492880368989</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>290.2580130627265</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>150.3558387531011</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,19 +6227,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>228.5247761102221</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L26" t="n">
-        <v>1303.584742363081</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M26" t="n">
-        <v>2460.632577573632</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N26" t="n">
-        <v>3586.363561010079</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>4566.543227580386</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
         <v>4566.543227580386</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6449,40 +6449,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6537,10 +6537,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K30" t="n">
         <v>1107.588885023173</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477105</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
         <v>444.5591692831957</v>
@@ -6625,10 +6625,10 @@
         <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745666</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
         <v>1783.551532113124</v>
@@ -6655,7 +6655,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
         <v>1617.386921419177</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6835,10 +6835,10 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
         <v>444.5591692831957</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961502</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835855</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197255</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>532.8213911287357</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2442.231649339773</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3422.411315910079</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4250.721190743476</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4797.21997670207</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387606</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673521</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403414</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574026</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566213</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278742</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362755</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397567</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936675</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080663</v>
+        <v>745.3413777868475</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716797</v>
+        <v>575.5833740375847</v>
       </c>
       <c r="F37" t="n">
-        <v>442.520979946312</v>
+        <v>398.8763199993409</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850158</v>
+        <v>233.2850450251686</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882664</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758676</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>491.0515498823631</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>925.334784885684</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.224161694961</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461497</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579745</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290618</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281949</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231237</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230405</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703678</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="38">
@@ -7151,25 +7151,25 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197256</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7187,25 +7187,25 @@
         <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079242</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
@@ -7214,7 +7214,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
         <v>2835.290740278742</v>
@@ -7245,13 +7245,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
         <v>1102.894748428211</v>
@@ -7309,25 +7309,25 @@
         <v>1061.826912397567</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936677</v>
+        <v>905.6649082936681</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080665</v>
+        <v>756.1866229080667</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716799</v>
+        <v>602.8283265716802</v>
       </c>
       <c r="F40" t="n">
         <v>442.5209799463123</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850161</v>
+        <v>293.329412385016</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7336,7 +7336,7 @@
         <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856841</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
@@ -7348,16 +7348,16 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T40" t="n">
         <v>2465.473625281949</v>
@@ -7372,7 +7372,7 @@
         <v>1677.257834230405</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976694</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703678</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
         <v>2003.64811180301</v>
@@ -7403,46 +7403,46 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L41" t="n">
-        <v>1367.171683086914</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="M41" t="n">
-        <v>2524.219518297465</v>
+        <v>2764.929192592146</v>
       </c>
       <c r="N41" t="n">
-        <v>3334.372458245846</v>
+        <v>3890.660176028593</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
@@ -7451,7 +7451,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
         <v>2835.290740278742</v>
@@ -7482,34 +7482,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>553.4185071663812</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="R42" t="n">
         <v>1760.806465154627</v>
@@ -7546,7 +7546,7 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
         <v>756.1866229080662</v>
@@ -7558,13 +7558,13 @@
         <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7585,13 +7585,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
         <v>2003.64811180301</v>
@@ -7631,19 +7631,19 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835853</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197254</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7670,10 +7670,10 @@
         <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
@@ -7685,10 +7685,10 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
         <v>2835.290740278742</v>
@@ -7719,31 +7719,31 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q45" t="n">
         <v>1643.633687060287</v>
@@ -7783,25 +7783,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936669</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080658</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716791</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463113</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850151</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882657</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7828,13 +7828,13 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
@@ -7846,7 +7846,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
         <v>1237.245823703677</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>121.1234907850386</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060602</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.0617495060601</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060603</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>6.257489509822335</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>120.5810333588774</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>204.7592244691589</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>542.0454828568509</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>80.49345581928355</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>542.0454828568509</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.0454828568509</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>542.0454828568509</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>123.4292214153885</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.0454828568509</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>38.07030050122592</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>467.0856939309868</v>
       </c>
       <c r="M11" t="n">
-        <v>881.7274630188754</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>610.3475289367068</v>
+        <v>911.7999282395376</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>257.101999686301</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9000,16 +9000,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,16 +9237,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>866.2895820207509</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9656,10 +9656,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>127.53932913075</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9890,7 +9890,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>901.152332228357</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11060,28 +11060,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>818.3363029781635</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>7.571051709082894</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,22 +11133,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>460.4563671621853</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497274</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>141.0354792728099</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>242.1968111001556</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>103.155346731394</v>
       </c>
       <c r="I19" t="n">
-        <v>87.7733497330651</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973306739</v>
+        <v>33.58904338006363</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>40.15930123557317</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627252</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>8.789189859684171</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>814206.4934131994</v>
+        <v>828406.0082505025</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>814206.4934131994</v>
+        <v>829172.2958824002</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>821451.877632102</v>
+        <v>829172.2958824002</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>648213.7680924953</v>
+        <v>663105.6381871138</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>844576.7360774211</v>
+        <v>844576.736077421</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>844576.7360774215</v>
+        <v>844576.7360774211</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>844576.7360774212</v>
+        <v>844576.7360774211</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855272.7604382938</v>
+        <v>844576.736077421</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855272.7604382938</v>
+        <v>855272.7604382937</v>
       </c>
     </row>
     <row r="16">
@@ -26314,22 +26314,22 @@
         <v>160844.1959671225</v>
       </c>
       <c r="C2" t="n">
-        <v>160844.1959671226</v>
+        <v>160844.1959671225</v>
       </c>
       <c r="D2" t="n">
         <v>160844.1959671225</v>
       </c>
       <c r="E2" t="n">
-        <v>121309.1689387271</v>
+        <v>124096.089664644</v>
       </c>
       <c r="F2" t="n">
-        <v>158057.2752412056</v>
+        <v>158057.2752412057</v>
       </c>
       <c r="G2" t="n">
         <v>158057.2752412057</v>
       </c>
       <c r="H2" t="n">
-        <v>158057.2752412057</v>
+        <v>158057.2752412056</v>
       </c>
       <c r="I2" t="n">
         <v>158057.2752412056</v>
@@ -26344,16 +26344,16 @@
         <v>158057.2752412056</v>
       </c>
       <c r="M2" t="n">
-        <v>160844.1959671228</v>
+        <v>158057.2752412056</v>
       </c>
       <c r="N2" t="n">
-        <v>160844.1959671226</v>
+        <v>160844.1959671225</v>
       </c>
       <c r="O2" t="n">
         <v>160844.1959671225</v>
       </c>
       <c r="P2" t="n">
-        <v>160844.1959671225</v>
+        <v>160844.1959671226</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>219526.2586797194</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4023.346928949046</v>
       </c>
       <c r="D3" t="n">
-        <v>36576.56611835359</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101421.5662728169</v>
+        <v>72938.043615344</v>
       </c>
       <c r="F3" t="n">
-        <v>113617.0259238713</v>
+        <v>105000.4827540558</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>171392.9763877636</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3205.121347375224</v>
       </c>
       <c r="L3" t="n">
-        <v>29801.37042610253</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83016.20625515938</v>
+        <v>60876.72976950138</v>
       </c>
       <c r="N3" t="n">
-        <v>97121.64797769143</v>
+        <v>88373.14763716055</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418668</v>
+        <v>167346.9247704307</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>186257.9324401101</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>62504.97940420079</v>
+        <v>63940.95018941459</v>
       </c>
       <c r="F4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904289</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="H4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
         <v>81439.57146904283</v>
@@ -26445,19 +26445,19 @@
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="N4" t="n">
         <v>94325.77438500366</v>
       </c>
-      <c r="N4" t="n">
-        <v>94325.77438500369</v>
-      </c>
       <c r="O4" t="n">
-        <v>94325.77438500368</v>
+        <v>94325.77438500365</v>
       </c>
       <c r="P4" t="n">
-        <v>94325.77438500368</v>
+        <v>94325.77438500365</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>73455.35436996847</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>66583.96535769652</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53609.02975154762</v>
+        <v>55437.43563696389</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246732.8656716765</v>
+        <v>-299484.341852996</v>
       </c>
       <c r="C6" t="n">
-        <v>-104541.5650119665</v>
+        <v>-82654.76378314265</v>
       </c>
       <c r="D6" t="n">
-        <v>-128574.2679490377</v>
+        <v>-78631.41685419362</v>
       </c>
       <c r="E6" t="n">
-        <v>-96226.40648983826</v>
+        <v>-68526.57399626581</v>
       </c>
       <c r="F6" t="n">
-        <v>-114717.560757501</v>
+        <v>-106124.2419270681</v>
       </c>
       <c r="G6" t="n">
-        <v>-1100.534833629703</v>
+        <v>-1123.759173012329</v>
       </c>
       <c r="H6" t="n">
-        <v>-1100.534833629674</v>
+        <v>-1123.759173012343</v>
       </c>
       <c r="I6" t="n">
-        <v>-1100.534833629747</v>
+        <v>-1123.759173012372</v>
       </c>
       <c r="J6" t="n">
-        <v>-112115.0001786199</v>
+        <v>-172516.735560776</v>
       </c>
       <c r="K6" t="n">
-        <v>-1100.534833629732</v>
+        <v>-4328.880520387586</v>
       </c>
       <c r="L6" t="n">
-        <v>-30901.90525973227</v>
+        <v>-1123.759173012372</v>
       </c>
       <c r="M6" t="n">
-        <v>-92013.39939912999</v>
+        <v>-62000.48894251372</v>
       </c>
       <c r="N6" t="n">
-        <v>-106118.8411216623</v>
+        <v>-97370.34078113141</v>
       </c>
       <c r="O6" t="n">
-        <v>-8997.193143970871</v>
+        <v>-8997.193143970842</v>
       </c>
       <c r="P6" t="n">
-        <v>-8997.193143970901</v>
+        <v>-8997.193143970726</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>16.23571033874738</v>
+      </c>
+      <c r="O2" t="n">
         <v>16.23571033874737</v>
       </c>
-      <c r="O2" t="n">
-        <v>16.23571033874738</v>
-      </c>
       <c r="P2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060602</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>542.0454828568509</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>881.7274630188754</v>
+        <v>911.7999282395377</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060602</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.45345710179674</v>
       </c>
       <c r="D4" t="n">
-        <v>117.7496253367466</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>339.6819801620244</v>
+        <v>244.2847216316808</v>
       </c>
       <c r="F4" t="n">
-        <v>396.53304036587</v>
+        <v>366.4605751452076</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060602</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179674</v>
       </c>
       <c r="L4" t="n">
-        <v>117.7496253367466</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>281.0052727250024</v>
+        <v>244.2847216316808</v>
       </c>
       <c r="N4" t="n">
-        <v>396.53304036587</v>
+        <v>307.7838677081851</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060602</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179674</v>
       </c>
       <c r="L4" t="n">
-        <v>117.7496253367466</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>339.6819801620244</v>
+        <v>244.2847216316808</v>
       </c>
       <c r="N4" t="n">
-        <v>396.53304036587</v>
+        <v>366.4605751452076</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>324.3396253613195</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>131.8582495620527</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>96.24250299630754</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>97.04422077795766</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>385.7730440116804</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>270.5241599567661</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27679,10 +27679,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.54491999896322</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>229.4233680290249</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,70 +27853,70 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>11.64838566658636</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>397.3838530629687</v>
+      </c>
+      <c r="H8" t="n">
+        <v>286.2388530112159</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4126214791313976</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>217.8665548556918</v>
+      </c>
+      <c r="U8" t="n">
+        <v>256.6300796561533</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>15.29711602113821</v>
-      </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>82.81535507800136</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>358.9907805655117</v>
-      </c>
-      <c r="W8" t="n">
-        <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>55.87832135360753</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>65.12251086040139</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,19 +34708,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>121.1234907850386</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060602</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.0617495060601</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060603</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>6.257489509822335</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>120.5810333588774</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>204.7592244691589</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>542.0454828568509</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>80.49345581928355</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>542.0454828568509</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.0454828568509</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>542.0454828568509</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>123.4292214153885</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.0454828568509</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>38.07030050122592</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>467.0856939309868</v>
       </c>
       <c r="M11" t="n">
-        <v>881.7274630188754</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>610.3475289367068</v>
+        <v>911.7999282395376</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157518</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>257.101999686301</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35890,10 +35890,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -36124,13 +36124,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36282,10 +36282,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080418</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>866.2895820207509</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36376,10 +36376,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>127.53932913075</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36610,7 +36610,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.434224008042</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37306,7 +37306,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,19 +37315,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,16 +37555,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>901.152332228357</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033057</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>818.3363029781635</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>7.571051709082894</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>460.4563671621853</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,10 +37877,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497274</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
